--- a/tests/files/bulk_curation_upload_bad.xlsx
+++ b/tests/files/bulk_curation_upload_bad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{29C84D6E-D04D-5B41-8810-382251F4B4E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C62151B-A178-0C4C-84D8-D27702D5904D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
-  <si>
-    <t>rationale_notes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
   <si>
     <t>Assertion</t>
   </si>
@@ -97,24 +94,6 @@
     <t>Rationales</t>
   </si>
   <si>
-    <t>precuration_date</t>
-  </si>
-  <si>
-    <t>disease_entity_assigned_date</t>
-  </si>
-  <si>
-    <t>curation_provisional_date</t>
-  </si>
-  <si>
-    <t>curation_in_progress_date</t>
-  </si>
-  <si>
-    <t>curation_approved_date</t>
-  </si>
-  <si>
-    <t>disease_entity if there is no mondo id</t>
-  </si>
-  <si>
     <t>curation types</t>
   </si>
   <si>
@@ -163,9 +142,6 @@
     <t>Curation Type</t>
   </si>
   <si>
-    <t>date_uploaded</t>
-  </si>
-  <si>
     <t>BRCA1</t>
   </si>
   <si>
@@ -214,18 +190,6 @@
     <t>OMIM ID 10</t>
   </si>
   <si>
-    <t>rationale 1</t>
-  </si>
-  <si>
-    <t>rationale 2</t>
-  </si>
-  <si>
-    <t>rationale 3</t>
-  </si>
-  <si>
-    <t>rationale 4</t>
-  </si>
-  <si>
     <t>beans@beans.com</t>
   </si>
   <si>
@@ -233,6 +197,72 @@
   </si>
   <si>
     <t>Bad Monkey</t>
+  </si>
+  <si>
+    <t>Disease entity if there is no mondo id</t>
+  </si>
+  <si>
+    <t>Rationale 1</t>
+  </si>
+  <si>
+    <t>Rationale 2</t>
+  </si>
+  <si>
+    <t>Rationale 3</t>
+  </si>
+  <si>
+    <t>Rationale 4</t>
+  </si>
+  <si>
+    <t>Rationale Notes</t>
+  </si>
+  <si>
+    <t>PMID 1</t>
+  </si>
+  <si>
+    <t>PMID 2</t>
+  </si>
+  <si>
+    <t>PMID 3</t>
+  </si>
+  <si>
+    <t>PMID 4</t>
+  </si>
+  <si>
+    <t>PMID 5</t>
+  </si>
+  <si>
+    <t>PMID 6</t>
+  </si>
+  <si>
+    <t>PMID 7</t>
+  </si>
+  <si>
+    <t>PMID 8</t>
+  </si>
+  <si>
+    <t>PMID 9</t>
+  </si>
+  <si>
+    <t>PMID 10</t>
+  </si>
+  <si>
+    <t>Uploaded Date</t>
+  </si>
+  <si>
+    <t>Precuration Date</t>
+  </si>
+  <si>
+    <t>Disease Entity Assigned Date</t>
+  </si>
+  <si>
+    <t>Curation In Progress Date</t>
+  </si>
+  <si>
+    <t>Curation Provisional Date</t>
+  </si>
+  <si>
+    <t>Curation Approved Date</t>
   </si>
 </sst>
 </file>
@@ -242,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -274,13 +304,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -314,7 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -327,6 +371,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -688,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
-  <dimension ref="A1:Z254"/>
+  <dimension ref="A1:AJ254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="T2" sqref="T2:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -715,130 +763,160 @@
     <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="M1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="N1" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="10">
         <v>93849384</v>
       </c>
       <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" t="s">
-        <v>2</v>
-      </c>
       <c r="T2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AE2" s="9">
         <v>42370</v>
       </c>
-      <c r="V2" s="9">
+      <c r="AF2" s="9">
         <v>42401</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AG2" s="9">
         <v>42401</v>
       </c>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AH2" s="9"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10">
         <v>98239823</v>
@@ -853,78 +931,78 @@
         <v>198191281</v>
       </c>
       <c r="O3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>2</v>
-      </c>
       <c r="T3" t="s">
-        <v>48</v>
-      </c>
-      <c r="U3" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AE3" s="9">
         <v>42860</v>
       </c>
-      <c r="V3" s="9">
+      <c r="AF3" s="9">
         <v>42863</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AG3" s="9">
         <v>42864</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AH3" s="9">
         <v>42865</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D4" s="10">
         <v>18329238</v>
       </c>
       <c r="O4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>48</v>
-      </c>
-      <c r="U4" s="9">
+        <v>40</v>
+      </c>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AE4" s="9">
         <v>42860</v>
       </c>
-      <c r="V4" s="9">
+      <c r="AF4" s="9">
         <v>42863</v>
       </c>
-      <c r="W4" s="9">
+      <c r="AG4" s="9">
         <v>42864</v>
       </c>
-      <c r="X4" s="9">
+      <c r="AH4" s="9">
         <v>42865</v>
       </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
@@ -933,7 +1011,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
@@ -942,16 +1020,45 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="B7" s="5"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+      <c r="AG7" s="14"/>
+      <c r="AH7" s="14"/>
+      <c r="AI7" s="14"/>
+      <c r="AJ7" s="14"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
@@ -960,7 +1067,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
@@ -969,7 +1076,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="U10" s="9"/>
       <c r="V10" s="9"/>
@@ -978,7 +1085,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="U11" s="9"/>
       <c r="V11" s="9"/>
@@ -987,7 +1094,7 @@
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -996,7 +1103,7 @@
       <c r="Y12" s="9"/>
       <c r="Z12" s="9"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -1005,7 +1112,7 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -1014,7 +1121,7 @@
       <c r="Y14" s="9"/>
       <c r="Z14" s="9"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -1023,7 +1130,7 @@
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="U16" s="9"/>
       <c r="V16" s="9"/>
@@ -2020,13 +2127,13 @@
           <x14:formula1>
             <xm:f>lookups!$L$3:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3 C5:C1048576</xm:sqref>
+          <xm:sqref>C2:C3 C5:C6 C8:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0726DCE-314E-1F40-BD9F-58E32A57A97C}">
           <x14:formula1>
             <xm:f>lookups!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>P5:P144 Q5:S178 Q2:S4 P2:P3</xm:sqref>
+          <xm:sqref>Q8:S178 P2:P3 P5:S6 P8:P144 Q2:R4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2059,50 +2166,50 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -2110,34 +2217,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -2145,33 +2252,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -2179,33 +2286,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -2213,33 +2320,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -2247,13 +2354,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J7" s="2"/>
     </row>
@@ -2262,13 +2369,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2"/>
     </row>
@@ -2277,14 +2384,14 @@
         <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2295,7 +2402,7 @@
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2306,7 +2413,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2317,7 +2424,7 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2328,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>

--- a/tests/files/bulk_curation_upload_bad.xlsx
+++ b/tests/files/bulk_curation_upload_bad.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C62151B-A178-0C4C-84D8-D27702D5904D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85B06B87-6E34-D345-B244-833EFE59BA17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="79">
   <si>
     <t>Assertion</t>
   </si>
@@ -272,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -311,6 +311,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFCA369"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -358,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -375,6 +381,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -739,7 +746,7 @@
   <dimension ref="A1:AJ254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,8 +890,8 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="10">
-        <v>93849384</v>
+      <c r="D2" s="16">
+        <v>605724</v>
       </c>
       <c r="P2" t="s">
         <v>0</v>
@@ -918,18 +925,7 @@
       <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10">
-        <v>98239823</v>
-      </c>
-      <c r="E3" s="11">
-        <v>29849283</v>
-      </c>
-      <c r="F3" s="11">
-        <v>29813918</v>
-      </c>
-      <c r="G3" s="11">
-        <v>198191281</v>
-      </c>
+      <c r="D3" s="10"/>
       <c r="O3" t="s">
         <v>42</v>
       </c>
@@ -967,9 +963,7 @@
       <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="10">
-        <v>18329238</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="O4" t="s">
         <v>42</v>
       </c>
@@ -1012,13 +1006,39 @@
       <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="B6" s="5"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10">
+        <v>18329238</v>
+      </c>
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s">
+        <v>40</v>
+      </c>
       <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
+      <c r="AE6" s="9">
+        <v>42370</v>
+      </c>
+      <c r="AF6" s="9">
+        <v>42401</v>
+      </c>
+      <c r="AG6" s="9">
+        <v>42401</v>
+      </c>
+      <c r="AH6" s="9"/>
     </row>
     <row r="7" spans="1:36" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
@@ -2117,6 +2137,7 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{B36354CF-ECBE-8846-A16E-88DC87860498}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{DF605ACA-064E-9F45-AC4B-73E8A56122D1}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{42F85008-A4C4-9C42-8EB0-F4BF2250B21C}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{7D876844-BB32-5A49-B7C2-8729D7760657}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -2127,13 +2148,13 @@
           <x14:formula1>
             <xm:f>lookups!$L$3:$L$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C3 C5:C6 C8:C1048576</xm:sqref>
+          <xm:sqref>C2:C3 C8:C1048576 C5:C6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0726DCE-314E-1F40-BD9F-58E32A57A97C}">
           <x14:formula1>
             <xm:f>lookups!$B$3:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>Q8:S178 P2:P3 P5:S6 P8:P144 Q2:R4</xm:sqref>
+          <xm:sqref>Q8:S178 P2:P3 Q2:R4 P8:P144 P5:S5 P6:R6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/tests/files/bulk_curation_upload_bad.xlsx
+++ b/tests/files/bulk_curation_upload_bad.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jward3/projects/clingen/tests/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yugen/code/gene-tracker/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{85B06B87-6E34-D345-B244-833EFE59BA17}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C233DAB-F62D-8547-9526-8691FFD95C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
@@ -247,9 +247,6 @@
     <t>PMID 10</t>
   </si>
   <si>
-    <t>Uploaded Date</t>
-  </si>
-  <si>
     <t>Precuration Date</t>
   </si>
   <si>
@@ -263,6 +260,9 @@
   </si>
   <si>
     <t>Curation Approved Date</t>
+  </si>
+  <si>
+    <t>Date Uploaded</t>
   </si>
 </sst>
 </file>
@@ -745,8 +745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -862,22 +862,22 @@
         <v>72</v>
       </c>
       <c r="AE1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">

--- a/tests/files/bulk_curation_upload_bad.xlsx
+++ b/tests/files/bulk_curation_upload_bad.xlsx
@@ -1,25 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yugen/code/gene-tracker/tests/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C233DAB-F62D-8547-9526-8691FFD95C8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902455C9-12A9-E548-8966-EE6D2BB46163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17540" xr2:uid="{86F797EF-5C7F-3A42-85FA-E5257E13070D}"/>
   </bookViews>
   <sheets>
     <sheet name="Curations" sheetId="1" r:id="rId1"/>
     <sheet name="lookups" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -145,9 +156,6 @@
     <t>BRCA1</t>
   </si>
   <si>
-    <t>sirs@unc.edu</t>
-  </si>
-  <si>
     <t>notes on the rationale</t>
   </si>
   <si>
@@ -263,6 +271,9 @@
   </si>
   <si>
     <t>Date Uploaded</t>
+  </si>
+  <si>
+    <t>super.user@example.com</t>
   </si>
 </sst>
 </file>
@@ -745,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7E3D26-773C-0343-9D4F-0C8AA45D4AC9}">
   <dimension ref="A1:AJ254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -781,103 +792,103 @@
         <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="N1" s="12" t="s">
         <v>35</v>
       </c>
       <c r="O1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="Y1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="Z1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="13" t="s">
+      <c r="AA1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="13" t="s">
+      <c r="AB1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="13" t="s">
+      <c r="AC1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AD1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AE1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="AE1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>76</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
@@ -885,7 +896,7 @@
         <v>38</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
@@ -900,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z2" s="9"/>
       <c r="AA2" s="9"/>
@@ -917,17 +928,17 @@
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10"/>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P3" t="s">
         <v>0</v>
@@ -936,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z3" s="9"/>
       <c r="AA3" s="9"/>
@@ -955,26 +966,26 @@
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="10"/>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q4" t="s">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z4" s="9"/>
       <c r="AA4" s="9"/>
@@ -993,7 +1004,7 @@
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -1010,7 +1021,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -1025,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Z6" s="9"/>
       <c r="AA6" s="9"/>
@@ -2134,10 +2145,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{A80EC79B-2F5D-8F44-B6B0-940454424882}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{B36354CF-ECBE-8846-A16E-88DC87860498}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{DF605ACA-064E-9F45-AC4B-73E8A56122D1}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{42F85008-A4C4-9C42-8EB0-F4BF2250B21C}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{7D876844-BB32-5A49-B7C2-8729D7760657}"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="super.user@example.com" xr:uid="{A3995F7F-6D1C-AB47-B20C-702156D2B22C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
